--- a/data/train/IncDec-train-5768.xlsx
+++ b/data/train/IncDec-train-5768.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
+          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
+          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,17 +468,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
+          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
+          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
+          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,17 +498,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
+          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,27 +518,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
+          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
+          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,17 +548,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
+          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,57 +578,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
+          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
+          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
+          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
+          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
+          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
+          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
+          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
+          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,37 +658,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
+          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>But we do have an oil crisis</t>
+          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
+          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
+          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
+          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,27 +728,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
+          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
+          <t>These are good solid domestic jobs that get created with energy efficiency</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,27 +758,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
+          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
+          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
+          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Exporting oil just doesnt make any sense</t>
+          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
+          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
+          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,17 +828,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+          <t>You say coal is not competitive</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,37 +848,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
+          <t>And does that make other forms of energy work better or does it replace them</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
+          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
+          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,27 +888,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
+          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,27 +918,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
+          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,17 +948,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
+          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
+          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
+          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,47 +988,47 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
+          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
+          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
+          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
+          <t>We have done that in a way that doesnt single out any fuel supply</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
+          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,27 +1038,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
+          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>I think we need to increase conservation and weatherization</t>
+          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>So the real question is what is the cost of the fuel</t>
+          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,37 +1068,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
+          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
+          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
+          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,57 +1108,57 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
+          <t>US carbon trading is coming</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+          <t>And what is the US consumption of gasoline per day</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
+          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>We had better find a way to use coal in a clean manner</t>
+          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
+          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,57 +1168,57 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
+          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+          <t>We had better find a way to use coal in a clean manner</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
+          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
+          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
+          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
+          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,17 +1238,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
+          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,17 +1268,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
+          <t>Now we have lowcost fuel</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,47 +1288,47 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
+          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
+          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
+          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,27 +1338,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
+          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>I will make a comment from the perspective of energy efficiency</t>
+          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,17 +1368,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+          <t>I am a big trash energy guy</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
+          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
+          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,17 +1398,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
+          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,77 +1418,77 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
+          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
+          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
+          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
+          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
+          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
+          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
+          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,57 +1498,57 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
+          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
+          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
+          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,37 +1558,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
+          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
+          <t>Sometimes we will give them energy sometimes they will give us energy</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,17 +1598,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
+          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
+          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,37 +1628,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
+          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
+          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
+          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
+          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,27 +1668,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
+          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
+          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
+          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
+          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
+          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,37 +1728,37 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
+          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,27 +1778,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
+          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
+          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
+          <t>We do have about 9000 megawatts of cogeneration facilities</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
+          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
+          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
+          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
+          <t>It would affect ethanol prices to some extent</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,27 +1868,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
+          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
+          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,27 +1898,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
+          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,17 +1928,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
+          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
+          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
+          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,47 +2028,47 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
+          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+          <t>Mercury that ends up in fish may originate as emissions to the air</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
+          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>And does that make other forms of energy work better or does it replace them</t>
+          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,57 +2078,57 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
+          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
+          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>These are just a few of the growing costs of carbon pollution</t>
+          <t>Electricity generated from coal is used in all 50 states</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
+          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,17 +2138,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
+          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,37 +2158,37 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+          <t>Yes we share a commitment with Canada to work towards energy security</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
+          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,47 +2228,47 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
+          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
+          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
+          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
+          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,27 +2278,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
+          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>He has added substantially to the states ability to deal with our current energy situation</t>
+          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
+          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,27 +2328,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
+          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>This need not be limited to natural gas or other energy products</t>
+          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,37 +2358,37 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
+          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
+          <t>He has added substantially to the states ability to deal with our current energy situation</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>This has to do with lowenriched uranium fuel</t>
+          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
+          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,17 +2408,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
+          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
+          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,37 +2428,37 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
+          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,57 +2468,57 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
+          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
+          <t>Energy prices soared and carbon pollution increased</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>You say coal is not competitive</t>
+          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>The United States has such incredible energy abundance</t>
+          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
+          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,37 +2538,37 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
+          <t>We all want safer and more fuel efficient cars</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
+          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,17 +2578,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
+          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
+          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+          <t>That invisible oil slick is now causing the oceans to become acidic</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,57 +2608,57 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
+          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
+          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
+          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+          <t>We have a great record in the Northwest on saving energy through conservation</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
+          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
+          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,27 +2668,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,47 +2698,47 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
+          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Economies are built on energy and materials</t>
+          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
+          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,17 +2748,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
+          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
+          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,27 +2768,27 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
+          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>US carbon trading is coming</t>
+          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
+          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
+          <t>These are just a few of the growing costs of carbon pollution</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Now we have lowcost fuel</t>
+          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
+          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,17 +2838,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
+          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,17 +2858,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,67 +2888,67 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
+          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
+          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
+          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
+          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
+          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,17 +2958,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
+          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
+          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,27 +2978,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
+          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
+          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,17 +3008,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
+          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,27 +3028,27 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
+          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>The Clean Power Plan as proposed will call that into question</t>
+          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
+          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,27 +3058,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
+          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
+          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,127 +3088,127 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
+          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
+          <t>Exporting oil just doesnt make any sense</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
+          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
+          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
+          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
+          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
+          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>The first provided an overview of the future of fuels and vehicles</t>
+          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>This should not be styled to effectively mandate ethanol use however</t>
+          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
+          <t>OK Do pollution controls affect the power plants energy efficiency</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
+          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
+          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
+          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
+          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
+          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
+          <t>The first provided an overview of the future of fuels and vehicles</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,17 +3258,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
+          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,37 +3278,37 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
+          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
+          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
+          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
+          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
+          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,37 +3338,37 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
+          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
+          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
+          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,17 +3378,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
+          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
+          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,37 +3398,37 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+          <t>It will take the place of 2000 megawatt coalfired power plants</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
+          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
+          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
+          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,17 +3438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
+          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
+          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,17 +3458,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
+          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
+          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,27 +3478,27 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>It has helped integrate renewables online</t>
+          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
+          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
+          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,27 +3518,27 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
+          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
+          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,77 +3558,77 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Yes we share a commitment with Canada to work towards energy security</t>
+          <t>It has helped integrate renewables online</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
+          <t>You have already got your nose under the tent with the emissions part of the car</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
+          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
+          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
+          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,47 +3638,47 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Diesel trucks are paying 450 a gallon for diesel</t>
+          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
+          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>You are quoting an unnamed energy publication</t>
+          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,27 +3688,27 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
+          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
+          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
+          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,17 +3728,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
+          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,17 +3748,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
+          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,17 +3768,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
+          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,17 +3788,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
+          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,87 +3808,87 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
+          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
+          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
+          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>So this war on coal must stop</t>
+          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
+          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>If we ask any energy trader they will tell you that is the first thing that they look at</t>
+          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>We all want safer and more fuel efficient cars</t>
+          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
+          <t>I think we need to increase conservation and weatherization</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,17 +3928,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
+          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,27 +3948,27 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
+          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
+          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
+          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,37 +3998,37 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
+          <t>Electric reliability and environmental protection are both important to this countrys future</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
+          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Has the RFS reduced the need for foreign oil</t>
+          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,117 +4038,117 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
+          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
+          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
+          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
+          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
+          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
+          <t>Everyone in Washington is interested in renewables</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
+          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,17 +4168,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
+          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
+          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,17 +4198,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>And I see no way that energy costs are going down</t>
+          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
+          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
+          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,17 +4228,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
+          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
+          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,27 +4248,27 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
+          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,27 +4278,27 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
+          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>We have a great record in the Northwest on saving energy through conservation</t>
+          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,47 +4308,47 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>I want to ask you Mr Chairman and each of the Commissioners can you for the record as short of a guarantee state that the NRC is doing its absolute best to eliminate any and all known threats to nuclear safety in this Nation</t>
+          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
+          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
+          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
+          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
+          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,17 +4378,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
+          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
+          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,27 +4398,27 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
+          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,37 +4428,37 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
+          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
+          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
+          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>And what is the US consumption of gasoline per day</t>
+          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,47 +4468,47 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
+          <t>These two projects represent the future of coal</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Electricity generated from coal is used in all 50 states</t>
+          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
+          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
+          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,37 +4518,37 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
+          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
+          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
+          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
+          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
+          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
+          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,17 +4588,17 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
+          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
+          <t>This need not be limited to natural gas or other energy products</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,17 +4608,17 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>That invisible oil slick is now causing the oceans to become acidic</t>
+          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
+          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
+          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,27 +4638,27 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
+          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
+          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
+          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,37 +4668,37 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
+          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
+          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,77 +4708,77 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
+          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
+          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
+          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,67 +4788,67 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
+          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+          <t>The Clean Power Plan as proposed will call that into question</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
+          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
+          <t>Each day more exploration and development activity in the Gulf is lost</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
+          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
+          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,17 +4858,17 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
+          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
+          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4908,17 +4908,17 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
+          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4928,27 +4928,27 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
+          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,47 +4958,47 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
+          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
+          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
+          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
+          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,47 +5008,47 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
+          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
+          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
+          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
+          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,47 +5058,47 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
+          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
+          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
+          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
+          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,17 +5138,17 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
+          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,17 +5158,17 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
+          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>We have done that in a way that doesnt single out any fuel supply</t>
+          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,27 +5188,27 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
+          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
+          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,17 +5218,17 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
+          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
+          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
+          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,17 +5258,17 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,17 +5278,17 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
+          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,97 +5298,97 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
+          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
+          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>And three accelerate the deployment of clean energy infrastructure</t>
+          <t>So this war on coal must stop</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
+          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
+          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
+          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5408,57 +5408,57 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Again less American jobs more dependence on foreign oil</t>
+          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
+          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+          <t>Diesel trucks are paying 450 a gallon for diesel</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
+          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,17 +5478,17 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
+          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
+          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5498,27 +5498,27 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
+          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
+          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Then the President issued two executive orders intended to increase energy production</t>
+          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5528,17 +5528,17 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
+          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5548,17 +5548,17 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>OK Now those greenhouse gas emissions are not only CO2</t>
+          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5568,27 +5568,27 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+          <t>Muir is concerned only about carbon</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
+          <t>Then the President issued two executive orders intended to increase energy production</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5598,47 +5598,47 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
+          <t>And three accelerate the deployment of clean energy infrastructure</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
+          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
+          <t>OK Now those greenhouse gas emissions are not only CO2</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5648,7 +5648,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
+          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5658,7 +5658,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5668,47 +5668,47 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
+          <t>For the first time in six decades the United States is a net natural gas exporter</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Everyone in Washington is interested in renewables</t>
+          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
+          <t>This should not be styled to effectively mandate ethanol use however</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
+          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5718,17 +5718,17 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5738,27 +5738,27 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+          <t>You are quoting an unnamed energy publication</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
+          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
+          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -5768,7 +5768,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5778,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
+          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5788,97 +5788,97 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>We will invest in medical research and clean energy technology</t>
+          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
+          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
+          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
+          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
+          <t>So the real question is what is the cost of the fuel</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
+          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
+          <t>Economies are built on energy and materials</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
+          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5888,27 +5888,27 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
+          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
+          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,57 +5918,57 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
+          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Energy prices soared and carbon pollution increased</t>
+          <t>But we do have an oil crisis</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
+          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
+          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -5978,37 +5978,37 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
+          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
+          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
+          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -6018,7 +6018,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6028,21 +6028,91 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
